--- a/medicine/Psychotrope/Caupona/Caupona.xlsx
+++ b/medicine/Psychotrope/Caupona/Caupona.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La caupona fut dans les grandes villes de l'Empire romain un lieu de débit de vin. Dans les zones rurales, elle joua le rôle d'auberge.
@@ -512,10 +524,12 @@
           <t>Débit de vin</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En ville, différents crus y étaient vendus, bus au comptoir ou emportés. Ces établissements offraient aussi des mets séchés et salés à déguster sur place[1]. Une inscription de Pompéi nous indique des pratiques de prix modérés : un as pour boire du vin, deux pour du meilleur, quatre pour du falerne, cru réputé[2]. De plus, les cauponae mettaient à la disposition de leurs clients une arrière-salle ou un jardin où se produisaient des danseuses, des tables de jeu et des chambres à louer[3].
-De ce nom dérive le caupo qui désigna soit l'hôtelier qui accueillait les voyageurs en leur donnant nourriture et logement, soit le cabaretier qui offrait le boire et le manger, mais ne logeait pas. Le cauponius désignait un jeune garçon employé à demeure. Enfin la cauponula nommait un débit de vin des plus misérables[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En ville, différents crus y étaient vendus, bus au comptoir ou emportés. Ces établissements offraient aussi des mets séchés et salés à déguster sur place. Une inscription de Pompéi nous indique des pratiques de prix modérés : un as pour boire du vin, deux pour du meilleur, quatre pour du falerne, cru réputé. De plus, les cauponae mettaient à la disposition de leurs clients une arrière-salle ou un jardin où se produisaient des danseuses, des tables de jeu et des chambres à louer.
+De ce nom dérive le caupo qui désigna soit l'hôtelier qui accueillait les voyageurs en leur donnant nourriture et logement, soit le cabaretier qui offrait le boire et le manger, mais ne logeait pas. Le cauponius désignait un jeune garçon employé à demeure. Enfin la cauponula nommait un débit de vin des plus misérables.
 	Caupona d'Alexander Hélix à Ostie
 </t>
         </is>
@@ -545,7 +559,9 @@
           <t>Auberge rurale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La découverte à Crest, sur le site de Bourbousson 3, d'une caupona gallo-romaine datée du IIIe siècle est due aux chantiers de fouilles ouverts sur le tracé du TGV Méditerranée. Elle est exemplaire de ce qu'était ce type d'établissement en zone rurale[b 1].
 Une équipe d'archéologues, sous la direction de Véronique Bastard, a pu dégager les restes d'un bâtiment quadrangulaire de 264 m2. La façade sud de celui-ci était précédée par deux pavillons d'angle réunis par une pergola. L'un a servi de resserre à bois, l'autre de remise pour les instruments aratoires. Cet ensemble formait cour. L'accès principal de l'auberge se situait à l'est et se faisait par un chemin raccordé à la voie romaine. À l'ouest, une ouverture menait à un lucus (bois sacré) où ont été retrouvées des offrandes monétaires[b 1].
